--- a/data/MetalliCan/material_df_sd_norm.xlsx
+++ b/data/MetalliCan/material_df_sd_norm.xlsx
@@ -76,192 +76,231 @@
     <t>normalization_key</t>
   </si>
   <si>
+    <t>TECH-6dc537e6-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-8</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-10</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-12</t>
+  </si>
+  <si>
     <t>TECH-687b8c8d-2023-6</t>
   </si>
   <si>
     <t>TECH-687b8c8d-2023-7</t>
   </si>
   <si>
+    <t>TECH-fefeaee4-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-8</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-13</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-8</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-10</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-12</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-14</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-8</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-13</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-14</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-15</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-13</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-14</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-15</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-16</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-19</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-20</t>
+  </si>
+  <si>
     <t>TECH-7607a50e-2023-8</t>
   </si>
   <si>
-    <t>TECH-02884fb5-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-15</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-16</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-19</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-20</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-10</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-12</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-10</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-12</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-15</t>
-  </si>
-  <si>
     <t>Material use</t>
   </si>
   <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Lubricants</t>
+  </si>
+  <si>
+    <t>Nitric acid (HNO3)</t>
+  </si>
+  <si>
+    <t>Sodium cyanide (NaCN)</t>
+  </si>
+  <si>
+    <t>Sulfuric acid (H2SO4)</t>
+  </si>
+  <si>
+    <t>Tires</t>
+  </si>
+  <si>
     <t>Total sodium cyanide used</t>
   </si>
   <si>
     <t>Total blasting agents used e.g. ANFO</t>
   </si>
   <si>
+    <t>Hydrochloric acid (HCL)</t>
+  </si>
+  <si>
+    <t>2'' balls</t>
+  </si>
+  <si>
+    <t>3/4'' balls</t>
+  </si>
+  <si>
     <t>Anti-scalant</t>
   </si>
   <si>
+    <t>Flocculant</t>
+  </si>
+  <si>
+    <t>Polyfroth h57</t>
+  </si>
+  <si>
+    <t>S60 SAG Balls</t>
+  </si>
+  <si>
+    <t>2.5'' balls</t>
+  </si>
+  <si>
+    <t>5.5'' balls</t>
+  </si>
+  <si>
+    <t>Caustic soda</t>
+  </si>
+  <si>
+    <t>Cyanide</t>
+  </si>
+  <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Caustic soda</t>
-  </si>
-  <si>
     <t>Compressor oil</t>
   </si>
   <si>
-    <t>Cyanide</t>
-  </si>
-  <si>
-    <t>Flocculant</t>
-  </si>
-  <si>
     <t>Grease</t>
   </si>
   <si>
     <t>Hydraulic oil</t>
   </si>
   <si>
-    <t>Lime</t>
-  </si>
-  <si>
     <t>Motor/drill oil</t>
   </si>
   <si>
@@ -271,127 +310,88 @@
     <t>Transmission oil</t>
   </si>
   <si>
-    <t>2'' balls</t>
-  </si>
-  <si>
-    <t>3/4'' balls</t>
-  </si>
-  <si>
-    <t>Polyfroth h57</t>
-  </si>
-  <si>
-    <t>S60 SAG Balls</t>
-  </si>
-  <si>
-    <t>2.5'' balls</t>
-  </si>
-  <si>
-    <t>5.5'' balls</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>Lubricants</t>
-  </si>
-  <si>
-    <t>Nitric acid (HNO3)</t>
-  </si>
-  <si>
-    <t>Sodium cyanide (NaCN)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid (H2SO4)</t>
-  </si>
-  <si>
-    <t>Tires</t>
-  </si>
-  <si>
-    <t>Hydrochloric acid (HCL)</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>kg</t>
   </si>
   <si>
-    <t>kl</t>
-  </si>
-  <si>
-    <t>l</t>
+    <t>QC-MAIN-6dc537e6</t>
   </si>
   <si>
     <t>ON-MAIN-687b8c8d</t>
   </si>
   <si>
+    <t>ON-MAIN-fefeaee4</t>
+  </si>
+  <si>
+    <t>BC-MAIN-aa76f6f2</t>
+  </si>
+  <si>
+    <t>ON-MAIN-0aadf28f</t>
+  </si>
+  <si>
+    <t>QC-MAIN-02884fb5</t>
+  </si>
+  <si>
     <t>ON-MAIN-7607a50e</t>
   </si>
   <si>
-    <t>QC-MAIN-02884fb5</t>
-  </si>
-  <si>
-    <t>BC-MAIN-aa76f6f2</t>
-  </si>
-  <si>
-    <t>ON-MAIN-0aadf28f</t>
-  </si>
-  <si>
-    <t>QC-MAIN-6dc537e6</t>
-  </si>
-  <si>
-    <t>ON-MAIN-fefeaee4</t>
-  </si>
-  <si>
     <t>GRP-0d911886</t>
   </si>
   <si>
+    <t>CMP-4a434d72</t>
+  </si>
+  <si>
     <t>CMP-3a4ccc7f</t>
   </si>
   <si>
+    <t>CMP-d94be190</t>
+  </si>
+  <si>
     <t>CMP-3d0a95b7</t>
   </si>
   <si>
-    <t>CMP-d94be190</t>
-  </si>
-  <si>
-    <t>CMP-4a434d72</t>
+    <t>SRC_NewmontCorporation_Newmont-2023-Performance-Data-Tables-V4-locked</t>
   </si>
   <si>
     <t>SRC_AlamosGoldInc_Data_2023</t>
   </si>
   <si>
+    <t>SRC_NewGoldInc_2023-New-Gold-ESG-Data-Factbook</t>
+  </si>
+  <si>
     <t>SRC_IAMGOLDCorporation_2023_iamgold-esg-performance-data-final_protected</t>
   </si>
   <si>
-    <t>SRC_NewGoldInc_2023-New-Gold-ESG-Data-Factbook</t>
-  </si>
-  <si>
-    <t>SRC_NewmontCorporation_Newmont-2023-Performance-Data-Tables-V4-locked</t>
+    <t>L×density→t</t>
   </si>
   <si>
     <t>kg→t</t>
   </si>
   <si>
-    <t>L×density→t</t>
-  </si>
-  <si>
     <t>reported in tonnes</t>
   </si>
   <si>
+    <t>kl→L × density kg/L; density=0.88</t>
+  </si>
+  <si>
+    <t>l→L × density kg/L; density=1.51</t>
+  </si>
+  <si>
+    <t>l→L × density kg/L; density=1.84</t>
+  </si>
+  <si>
+    <t>kl→L × density kg/L; density=1.19</t>
+  </si>
+  <si>
     <t>kg/1000</t>
-  </si>
-  <si>
-    <t>kl→L × density kg/L; density=0.88</t>
-  </si>
-  <si>
-    <t>l→L × density kg/L; density=1.51</t>
-  </si>
-  <si>
-    <t>l→L × density kg/L; density=1.84</t>
-  </si>
-  <si>
-    <t>kl→L × density kg/L; density=1.19</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
         <v>98</v>
       </c>
       <c r="F2">
-        <v>245</v>
+        <v>27374</v>
       </c>
       <c r="H2" t="s">
         <v>102</v>
@@ -846,7 +846,7 @@
         <v>114</v>
       </c>
       <c r="L2">
-        <v>245</v>
+        <v>27374</v>
       </c>
       <c r="M2" t="s">
         <v>98</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>439008</v>
+        <v>1661000</v>
       </c>
       <c r="R2">
-        <v>439008</v>
+        <v>1661000</v>
       </c>
       <c r="S2">
-        <v>0.0005580763904074641</v>
+        <v>0.01648043347381096</v>
       </c>
       <c r="T2" t="s">
         <v>7</v>
@@ -887,7 +887,7 @@
         <v>98</v>
       </c>
       <c r="F3">
-        <v>486.3</v>
+        <v>2229</v>
       </c>
       <c r="H3" t="s">
         <v>102</v>
@@ -899,7 +899,7 @@
         <v>114</v>
       </c>
       <c r="L3">
-        <v>486.3</v>
+        <v>2229</v>
       </c>
       <c r="M3" t="s">
         <v>98</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>439008</v>
+        <v>1661000</v>
       </c>
       <c r="R3">
-        <v>439008</v>
+        <v>1661000</v>
       </c>
       <c r="S3">
-        <v>0.001107724688388367</v>
+        <v>0.001341962673088501</v>
       </c>
       <c r="T3" t="s">
         <v>7</v>
@@ -934,16 +934,16 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4">
-        <v>1955.7</v>
+        <v>380.687</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
         <v>110</v>
@@ -952,25 +952,25 @@
         <v>114</v>
       </c>
       <c r="L4">
-        <v>1955.7</v>
+        <v>335.00456</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2878047</v>
+        <v>1661000</v>
       </c>
       <c r="R4">
-        <v>2878047</v>
+        <v>1661000</v>
       </c>
       <c r="S4">
-        <v>0.0006795233017389918</v>
+        <v>0.000201688476821192</v>
       </c>
       <c r="T4" t="s">
         <v>7</v>
@@ -987,43 +987,43 @@
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>35.4</v>
+        <v>26575</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L5">
-        <v>35.4</v>
+        <v>40.12825</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="R5">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="S5">
-        <v>3.423597678916827E-05</v>
+        <v>2.415909090909091E-05</v>
       </c>
       <c r="T5" t="s">
         <v>7</v>
@@ -1040,25 +1040,25 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>98</v>
       </c>
       <c r="F6">
-        <v>60.4</v>
+        <v>838.8</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6">
-        <v>60.4</v>
+        <v>838.8</v>
       </c>
       <c r="M6" t="s">
         <v>98</v>
@@ -1070,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="R6">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="S6">
-        <v>5.841392649903288E-05</v>
+        <v>0.0005049969897652016</v>
       </c>
       <c r="T6" t="s">
         <v>7</v>
@@ -1093,43 +1093,43 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>86.59999999999999</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L7">
-        <v>86.59999999999999</v>
+        <v>0.1360864</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="R7">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="S7">
-        <v>8.375241779497098E-05</v>
+        <v>8.193040337146298E-08</v>
       </c>
       <c r="T7" t="s">
         <v>7</v>
@@ -1146,25 +1146,25 @@
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>98</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>241.250566996281</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>241.250566996281</v>
       </c>
       <c r="M8" t="s">
         <v>98</v>
@@ -1176,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="R8">
-        <v>1034000</v>
+        <v>1661000</v>
       </c>
       <c r="S8">
-        <v>1.450676982591876E-06</v>
+        <v>0.0001452441703770506</v>
       </c>
       <c r="T8" t="s">
         <v>7</v>
@@ -1199,16 +1199,16 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>98</v>
       </c>
       <c r="F9">
-        <v>399.3</v>
+        <v>245</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
         <v>111</v>
@@ -1217,7 +1217,7 @@
         <v>115</v>
       </c>
       <c r="L9">
-        <v>399.3</v>
+        <v>245</v>
       </c>
       <c r="M9" t="s">
         <v>98</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1034000</v>
+        <v>439008</v>
       </c>
       <c r="R9">
-        <v>1034000</v>
+        <v>439008</v>
       </c>
       <c r="S9">
-        <v>0.0003861702127659574</v>
+        <v>0.0005580763904074641</v>
       </c>
       <c r="T9" t="s">
         <v>7</v>
@@ -1252,16 +1252,16 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>98</v>
       </c>
       <c r="F10">
-        <v>46.2</v>
+        <v>486.3</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
         <v>111</v>
@@ -1270,7 +1270,7 @@
         <v>115</v>
       </c>
       <c r="L10">
-        <v>46.2</v>
+        <v>486.3</v>
       </c>
       <c r="M10" t="s">
         <v>98</v>
@@ -1282,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1034000</v>
+        <v>439008</v>
       </c>
       <c r="R10">
-        <v>1034000</v>
+        <v>439008</v>
       </c>
       <c r="S10">
-        <v>4.468085106382979E-05</v>
+        <v>0.001107724688388367</v>
       </c>
       <c r="T10" t="s">
         <v>7</v>
@@ -1305,25 +1305,25 @@
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>98</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>9417.6</v>
       </c>
       <c r="H11" t="s">
         <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>9417.6</v>
       </c>
       <c r="M11" t="s">
         <v>98</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="R11">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="S11">
-        <v>4.352030947775629E-06</v>
+        <v>0.009161089494163424</v>
       </c>
       <c r="T11" t="s">
         <v>7</v>
@@ -1361,40 +1361,40 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12">
-        <v>200.2</v>
+        <v>57.2</v>
       </c>
       <c r="H12" t="s">
         <v>104</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L12">
-        <v>200.2</v>
+        <v>68.068</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="R12">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="S12">
-        <v>0.0001936170212765957</v>
+        <v>6.621400778210116E-05</v>
       </c>
       <c r="T12" t="s">
         <v>7</v>
@@ -1411,25 +1411,25 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>98</v>
       </c>
       <c r="F13">
-        <v>5069.3</v>
+        <v>924.081</v>
       </c>
       <c r="H13" t="s">
         <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13">
-        <v>5069.3</v>
+        <v>924.081</v>
       </c>
       <c r="M13" t="s">
         <v>98</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="R13">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="S13">
-        <v>0.004902611218568665</v>
+        <v>0.0008989114785992218</v>
       </c>
       <c r="T13" t="s">
         <v>7</v>
@@ -1464,43 +1464,43 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14">
-        <v>18.9</v>
+        <v>336.521</v>
       </c>
       <c r="H14" t="s">
         <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14">
-        <v>18.9</v>
+        <v>296.13848</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="R14">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="S14">
-        <v>1.827852998065764E-05</v>
+        <v>0.0002880724513618676</v>
       </c>
       <c r="T14" t="s">
         <v>7</v>
@@ -1517,25 +1517,25 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
         <v>98</v>
       </c>
       <c r="F15">
-        <v>539</v>
+        <v>390.003</v>
       </c>
       <c r="H15" t="s">
         <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L15">
-        <v>539</v>
+        <v>390.003</v>
       </c>
       <c r="M15" t="s">
         <v>98</v>
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="R15">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="S15">
-        <v>0.0005212765957446809</v>
+        <v>0.0003793803501945525</v>
       </c>
       <c r="T15" t="s">
         <v>7</v>
@@ -1570,25 +1570,25 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
       </c>
       <c r="F16">
-        <v>8.1</v>
+        <v>100.705343372947</v>
       </c>
       <c r="H16" t="s">
         <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L16">
-        <v>8.1</v>
+        <v>100.705343372947</v>
       </c>
       <c r="M16" t="s">
         <v>98</v>
@@ -1600,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="R16">
-        <v>1034000</v>
+        <v>1028000</v>
       </c>
       <c r="S16">
-        <v>7.833655705996132E-06</v>
+        <v>9.79623962771858E-05</v>
       </c>
       <c r="T16" t="s">
         <v>7</v>
@@ -1623,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>98</v>
@@ -1676,7 +1676,7 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
@@ -1729,10 +1729,10 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19">
         <v>38000</v>
@@ -1750,10 +1750,10 @@
         <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>98</v>
@@ -1835,7 +1835,7 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>98</v>
@@ -1888,7 +1888,7 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
         <v>98</v>
@@ -1941,7 +1941,7 @@
         <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>98</v>
@@ -1994,25 +1994,25 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
         <v>98</v>
       </c>
       <c r="F24">
-        <v>5977.02</v>
-      </c>
-      <c r="H24" t="s">
-        <v>106</v>
+        <v>12578</v>
+      </c>
+      <c r="I24" t="s">
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L24">
-        <v>5977.02</v>
+        <v>12578</v>
       </c>
       <c r="M24" t="s">
         <v>98</v>
@@ -2023,17 +2023,17 @@
       <c r="O24" t="b">
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>8764000</v>
+      <c r="Q24">
+        <v>2911000</v>
       </c>
       <c r="R24">
-        <v>8764000</v>
+        <v>2911000</v>
       </c>
       <c r="S24">
-        <v>0.0006819968051118211</v>
+        <v>0.004320851940913775</v>
       </c>
       <c r="T24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2047,46 +2047,46 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>2819.39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>106</v>
+        <v>2.255</v>
+      </c>
+      <c r="I25" t="s">
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L25">
-        <v>2819.39</v>
+        <v>2.68345</v>
       </c>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>8764000</v>
+      <c r="Q25">
+        <v>2911000</v>
       </c>
       <c r="R25">
-        <v>8764000</v>
+        <v>2911000</v>
       </c>
       <c r="S25">
-        <v>0.0003217012779552716</v>
+        <v>9.218309859154929E-07</v>
       </c>
       <c r="T25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2100,46 +2100,46 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>231239.82</v>
-      </c>
-      <c r="H26" t="s">
-        <v>106</v>
+        <v>4346.921</v>
+      </c>
+      <c r="I26" t="s">
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L26">
-        <v>231.23982</v>
+        <v>4346.921</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
       </c>
-      <c r="P26">
-        <v>8764000</v>
+      <c r="Q26">
+        <v>2911000</v>
       </c>
       <c r="R26">
-        <v>8764000</v>
+        <v>2911000</v>
       </c>
       <c r="S26">
-        <v>2.638519169329074E-05</v>
+        <v>0.001493274132600481</v>
       </c>
       <c r="T26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2153,46 +2153,46 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27">
-        <v>526.21</v>
-      </c>
-      <c r="H27" t="s">
-        <v>106</v>
+        <v>619.366</v>
+      </c>
+      <c r="I27" t="s">
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L27">
-        <v>526.21</v>
+        <v>545.0420799999999</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
       </c>
-      <c r="P27">
-        <v>8764000</v>
+      <c r="Q27">
+        <v>2911000</v>
       </c>
       <c r="R27">
-        <v>8764000</v>
+        <v>2911000</v>
       </c>
       <c r="S27">
-        <v>6.004221816522137E-05</v>
+        <v>0.0001872353418069392</v>
       </c>
       <c r="T27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2206,46 +2206,46 @@
         <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>2269.57</v>
-      </c>
-      <c r="H28" t="s">
-        <v>106</v>
+        <v>175</v>
+      </c>
+      <c r="I28" t="s">
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L28">
-        <v>2269.57</v>
+        <v>0.26425</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>8764000</v>
+      <c r="Q28">
+        <v>2911000</v>
       </c>
       <c r="R28">
-        <v>8764000</v>
+        <v>2911000</v>
       </c>
       <c r="S28">
-        <v>0.0002589650844363305</v>
+        <v>9.077636551013398E-08</v>
       </c>
       <c r="T28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2259,25 +2259,25 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>98</v>
       </c>
       <c r="F29">
-        <v>149.1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>106</v>
+        <v>734.521</v>
+      </c>
+      <c r="I29" t="s">
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L29">
-        <v>149.1</v>
+        <v>734.521</v>
       </c>
       <c r="M29" t="s">
         <v>98</v>
@@ -2288,17 +2288,17 @@
       <c r="O29" t="b">
         <v>0</v>
       </c>
-      <c r="P29">
-        <v>8764000</v>
+      <c r="Q29">
+        <v>2911000</v>
       </c>
       <c r="R29">
-        <v>8764000</v>
+        <v>2911000</v>
       </c>
       <c r="S29">
-        <v>1.701277955271566E-05</v>
+        <v>0.0002523260048093439</v>
       </c>
       <c r="T29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2312,46 +2312,46 @@
         <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30">
-        <v>6390.4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>109</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L30">
-        <v>6390.4</v>
+        <v>0.009200000000000002</v>
       </c>
       <c r="M30" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
       </c>
-      <c r="P30">
-        <v>8764000</v>
+      <c r="Q30">
+        <v>2911000</v>
       </c>
       <c r="R30">
-        <v>8764000</v>
+        <v>2911000</v>
       </c>
       <c r="S30">
-        <v>0.0007291647649475125</v>
+        <v>3.160425970456888E-09</v>
       </c>
       <c r="T30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2365,25 +2365,25 @@
         <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
         <v>98</v>
       </c>
       <c r="F31">
-        <v>27374</v>
-      </c>
-      <c r="H31" t="s">
-        <v>107</v>
+        <v>626.983579787717</v>
+      </c>
+      <c r="I31" t="s">
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L31">
-        <v>27374</v>
+        <v>626.983579787717</v>
       </c>
       <c r="M31" t="s">
         <v>98</v>
@@ -2394,17 +2394,17 @@
       <c r="O31" t="b">
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>1661000</v>
+      <c r="Q31">
+        <v>2911000</v>
       </c>
       <c r="R31">
-        <v>1661000</v>
+        <v>2911000</v>
       </c>
       <c r="S31">
-        <v>0.01648043347381096</v>
+        <v>0.0002153842596316444</v>
       </c>
       <c r="T31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2418,25 +2418,25 @@
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
         <v>98</v>
       </c>
       <c r="F32">
-        <v>2229</v>
+        <v>5977.02</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L32">
-        <v>2229</v>
+        <v>5977.02</v>
       </c>
       <c r="M32" t="s">
         <v>98</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="R32">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="S32">
-        <v>0.001341962673088501</v>
+        <v>0.0006819968051118211</v>
       </c>
       <c r="T32" t="s">
         <v>7</v>
@@ -2471,43 +2471,43 @@
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33">
-        <v>380.687</v>
+        <v>2819.39</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L33">
-        <v>335.00456</v>
+        <v>2819.39</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="R33">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="S33">
-        <v>0.000201688476821192</v>
+        <v>0.0003217012779552716</v>
       </c>
       <c r="T33" t="s">
         <v>7</v>
@@ -2524,43 +2524,43 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
         <v>101</v>
       </c>
       <c r="F34">
-        <v>26575</v>
+        <v>231239.82</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L34">
-        <v>40.12825</v>
+        <v>231.23982</v>
       </c>
       <c r="M34" t="s">
         <v>119</v>
       </c>
       <c r="N34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="R34">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="S34">
-        <v>2.415909090909091E-05</v>
+        <v>2.638519169329074E-05</v>
       </c>
       <c r="T34" t="s">
         <v>7</v>
@@ -2577,25 +2577,25 @@
         <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
         <v>98</v>
       </c>
       <c r="F35">
-        <v>838.8</v>
+        <v>526.21</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L35">
-        <v>838.8</v>
+        <v>526.21</v>
       </c>
       <c r="M35" t="s">
         <v>98</v>
@@ -2607,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="R35">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="S35">
-        <v>0.0005049969897652016</v>
+        <v>6.004221816522137E-05</v>
       </c>
       <c r="T35" t="s">
         <v>7</v>
@@ -2630,43 +2630,43 @@
         <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F36">
-        <v>73.95999999999999</v>
+        <v>2269.57</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L36">
-        <v>0.1360864</v>
+        <v>2269.57</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="R36">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="S36">
-        <v>8.193040337146298E-08</v>
+        <v>0.0002589650844363305</v>
       </c>
       <c r="T36" t="s">
         <v>7</v>
@@ -2683,25 +2683,25 @@
         <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
         <v>98</v>
       </c>
       <c r="F37">
-        <v>241.250566996281</v>
+        <v>149.1</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L37">
-        <v>241.250566996281</v>
+        <v>149.1</v>
       </c>
       <c r="M37" t="s">
         <v>98</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="R37">
-        <v>1661000</v>
+        <v>8764000</v>
       </c>
       <c r="S37">
-        <v>0.0001452441703770506</v>
+        <v>1.701277955271566E-05</v>
       </c>
       <c r="T37" t="s">
         <v>7</v>
@@ -2736,25 +2736,25 @@
         <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
         <v>98</v>
       </c>
       <c r="F38">
-        <v>9417.6</v>
+        <v>6390.4</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L38">
-        <v>9417.6</v>
+        <v>6390.4</v>
       </c>
       <c r="M38" t="s">
         <v>98</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1028000</v>
+        <v>8764000</v>
       </c>
       <c r="R38">
-        <v>1028000</v>
+        <v>8764000</v>
       </c>
       <c r="S38">
-        <v>0.009161089494163424</v>
+        <v>0.0007291647649475125</v>
       </c>
       <c r="T38" t="s">
         <v>7</v>
@@ -2789,16 +2789,16 @@
         <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39">
-        <v>57.2</v>
+        <v>35.4</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J39" t="s">
         <v>113</v>
@@ -2807,25 +2807,25 @@
         <v>117</v>
       </c>
       <c r="L39">
-        <v>68.068</v>
+        <v>35.4</v>
       </c>
       <c r="M39" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="R39">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="S39">
-        <v>6.621400778210116E-05</v>
+        <v>3.423597678916827E-05</v>
       </c>
       <c r="T39" t="s">
         <v>7</v>
@@ -2842,16 +2842,16 @@
         <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
         <v>98</v>
       </c>
       <c r="F40">
-        <v>924.081</v>
+        <v>60.4</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J40" t="s">
         <v>113</v>
@@ -2860,7 +2860,7 @@
         <v>117</v>
       </c>
       <c r="L40">
-        <v>924.081</v>
+        <v>60.4</v>
       </c>
       <c r="M40" t="s">
         <v>98</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="R40">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="S40">
-        <v>0.0008989114785992218</v>
+        <v>5.841392649903288E-05</v>
       </c>
       <c r="T40" t="s">
         <v>7</v>
@@ -2895,16 +2895,16 @@
         <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F41">
-        <v>336.521</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41" t="s">
         <v>113</v>
@@ -2913,25 +2913,25 @@
         <v>117</v>
       </c>
       <c r="L41">
-        <v>296.13848</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="M41" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="R41">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="S41">
-        <v>0.0002880724513618676</v>
+        <v>8.375241779497098E-05</v>
       </c>
       <c r="T41" t="s">
         <v>7</v>
@@ -2948,16 +2948,16 @@
         <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>98</v>
       </c>
       <c r="F42">
-        <v>390.003</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J42" t="s">
         <v>113</v>
@@ -2966,7 +2966,7 @@
         <v>117</v>
       </c>
       <c r="L42">
-        <v>390.003</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="s">
         <v>98</v>
@@ -2978,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="R42">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="S42">
-        <v>0.0003793803501945525</v>
+        <v>1.450676982591876E-06</v>
       </c>
       <c r="T42" t="s">
         <v>7</v>
@@ -3001,16 +3001,16 @@
         <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
         <v>98</v>
       </c>
       <c r="F43">
-        <v>100.705343372947</v>
+        <v>399.3</v>
       </c>
       <c r="H43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J43" t="s">
         <v>113</v>
@@ -3019,7 +3019,7 @@
         <v>117</v>
       </c>
       <c r="L43">
-        <v>100.705343372947</v>
+        <v>399.3</v>
       </c>
       <c r="M43" t="s">
         <v>98</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="R43">
-        <v>1028000</v>
+        <v>1034000</v>
       </c>
       <c r="S43">
-        <v>9.79623962771858E-05</v>
+        <v>0.0003861702127659574</v>
       </c>
       <c r="T43" t="s">
         <v>7</v>
@@ -3054,16 +3054,16 @@
         <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
         <v>98</v>
       </c>
       <c r="F44">
-        <v>12578</v>
-      </c>
-      <c r="I44" t="s">
-        <v>109</v>
+        <v>46.2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>107</v>
       </c>
       <c r="J44" t="s">
         <v>113</v>
@@ -3072,7 +3072,7 @@
         <v>117</v>
       </c>
       <c r="L44">
-        <v>12578</v>
+        <v>46.2</v>
       </c>
       <c r="M44" t="s">
         <v>98</v>
@@ -3083,17 +3083,17 @@
       <c r="O44" t="b">
         <v>0</v>
       </c>
-      <c r="Q44">
-        <v>2911000</v>
+      <c r="P44">
+        <v>1034000</v>
       </c>
       <c r="R44">
-        <v>2911000</v>
+        <v>1034000</v>
       </c>
       <c r="S44">
-        <v>0.004320851940913775</v>
+        <v>4.468085106382979E-05</v>
       </c>
       <c r="T44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3107,16 +3107,16 @@
         <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45">
-        <v>2.255</v>
-      </c>
-      <c r="I45" t="s">
-        <v>109</v>
+        <v>4.5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
       </c>
       <c r="J45" t="s">
         <v>113</v>
@@ -3125,28 +3125,28 @@
         <v>117</v>
       </c>
       <c r="L45">
-        <v>2.68345</v>
+        <v>4.5</v>
       </c>
       <c r="M45" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <v>2911000</v>
+      <c r="P45">
+        <v>1034000</v>
       </c>
       <c r="R45">
-        <v>2911000</v>
+        <v>1034000</v>
       </c>
       <c r="S45">
-        <v>9.218309859154929E-07</v>
+        <v>4.352030947775629E-06</v>
       </c>
       <c r="T45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3160,16 +3160,16 @@
         <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
         <v>98</v>
       </c>
       <c r="F46">
-        <v>4346.921</v>
-      </c>
-      <c r="I46" t="s">
-        <v>109</v>
+        <v>200.2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
       </c>
       <c r="J46" t="s">
         <v>113</v>
@@ -3178,7 +3178,7 @@
         <v>117</v>
       </c>
       <c r="L46">
-        <v>4346.921</v>
+        <v>200.2</v>
       </c>
       <c r="M46" t="s">
         <v>98</v>
@@ -3189,17 +3189,17 @@
       <c r="O46" t="b">
         <v>0</v>
       </c>
-      <c r="Q46">
-        <v>2911000</v>
+      <c r="P46">
+        <v>1034000</v>
       </c>
       <c r="R46">
-        <v>2911000</v>
+        <v>1034000</v>
       </c>
       <c r="S46">
-        <v>0.001493274132600481</v>
+        <v>0.0001936170212765957</v>
       </c>
       <c r="T46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3213,16 +3213,16 @@
         <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F47">
-        <v>619.366</v>
-      </c>
-      <c r="I47" t="s">
-        <v>109</v>
+        <v>5069.3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>107</v>
       </c>
       <c r="J47" t="s">
         <v>113</v>
@@ -3231,28 +3231,28 @@
         <v>117</v>
       </c>
       <c r="L47">
-        <v>545.0420799999999</v>
+        <v>5069.3</v>
       </c>
       <c r="M47" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
       </c>
-      <c r="Q47">
-        <v>2911000</v>
+      <c r="P47">
+        <v>1034000</v>
       </c>
       <c r="R47">
-        <v>2911000</v>
+        <v>1034000</v>
       </c>
       <c r="S47">
-        <v>0.0001872353418069392</v>
+        <v>0.004902611218568665</v>
       </c>
       <c r="T47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3266,16 +3266,16 @@
         <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F48">
-        <v>175</v>
-      </c>
-      <c r="I48" t="s">
-        <v>109</v>
+        <v>18.9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>107</v>
       </c>
       <c r="J48" t="s">
         <v>113</v>
@@ -3284,28 +3284,28 @@
         <v>117</v>
       </c>
       <c r="L48">
-        <v>0.26425</v>
+        <v>18.9</v>
       </c>
       <c r="M48" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
       </c>
-      <c r="Q48">
-        <v>2911000</v>
+      <c r="P48">
+        <v>1034000</v>
       </c>
       <c r="R48">
-        <v>2911000</v>
+        <v>1034000</v>
       </c>
       <c r="S48">
-        <v>9.077636551013398E-08</v>
+        <v>1.827852998065764E-05</v>
       </c>
       <c r="T48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3319,16 +3319,16 @@
         <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
         <v>98</v>
       </c>
       <c r="F49">
-        <v>734.521</v>
-      </c>
-      <c r="I49" t="s">
-        <v>109</v>
+        <v>539</v>
+      </c>
+      <c r="H49" t="s">
+        <v>107</v>
       </c>
       <c r="J49" t="s">
         <v>113</v>
@@ -3337,7 +3337,7 @@
         <v>117</v>
       </c>
       <c r="L49">
-        <v>734.521</v>
+        <v>539</v>
       </c>
       <c r="M49" t="s">
         <v>98</v>
@@ -3348,17 +3348,17 @@
       <c r="O49" t="b">
         <v>0</v>
       </c>
-      <c r="Q49">
-        <v>2911000</v>
+      <c r="P49">
+        <v>1034000</v>
       </c>
       <c r="R49">
-        <v>2911000</v>
+        <v>1034000</v>
       </c>
       <c r="S49">
-        <v>0.0002523260048093439</v>
+        <v>0.0005212765957446809</v>
       </c>
       <c r="T49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3372,16 +3372,16 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="I50" t="s">
-        <v>109</v>
+        <v>8.1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>107</v>
       </c>
       <c r="J50" t="s">
         <v>113</v>
@@ -3390,28 +3390,28 @@
         <v>117</v>
       </c>
       <c r="L50">
-        <v>0.009200000000000002</v>
+        <v>8.1</v>
       </c>
       <c r="M50" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N50" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
       </c>
-      <c r="Q50">
-        <v>2911000</v>
+      <c r="P50">
+        <v>1034000</v>
       </c>
       <c r="R50">
-        <v>2911000</v>
+        <v>1034000</v>
       </c>
       <c r="S50">
-        <v>3.160425970456888E-09</v>
+        <v>7.833655705996132E-06</v>
       </c>
       <c r="T50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3425,25 +3425,25 @@
         <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
         <v>98</v>
       </c>
       <c r="F51">
-        <v>626.983579787717</v>
-      </c>
-      <c r="I51" t="s">
-        <v>109</v>
+        <v>1955.7</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L51">
-        <v>626.983579787717</v>
+        <v>1955.7</v>
       </c>
       <c r="M51" t="s">
         <v>98</v>
@@ -3454,17 +3454,17 @@
       <c r="O51" t="b">
         <v>0</v>
       </c>
-      <c r="Q51">
-        <v>2911000</v>
+      <c r="P51">
+        <v>2878047</v>
       </c>
       <c r="R51">
-        <v>2911000</v>
+        <v>2878047</v>
       </c>
       <c r="S51">
-        <v>0.0002153842596316444</v>
+        <v>0.0006795233017389918</v>
       </c>
       <c r="T51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
